--- a/ЕГЭ Максим Пастухов.xlsx
+++ b/ЕГЭ Максим Пастухов.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C7DBEA-04CA-435D-8F0C-7E6E8F714D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1291E4CE-9637-4D02-ACC3-0CE65244F31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,10 +750,10 @@
   <dimension ref="A1:AD60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD16" sqref="AD16"/>
+      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +958,9 @@
       <c r="C3" s="5"/>
       <c r="D3" s="7"/>
       <c r="E3" s="19"/>
-      <c r="F3" s="7"/>
+      <c r="F3" s="9">
+        <v>56533</v>
+      </c>
       <c r="G3" s="8"/>
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
